--- a/LR3/table_1_59.xlsx
+++ b/LR3/table_1_59.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2daf2d85f4952eb5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="147" documentId="11_924874E5C5FBB6926123EA198B3E8C185103838B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DAD2555D-22DB-496D-AA3C-4242E3BD6F97}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22B68D9-2357-48F8-A62E-2CE573D705DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -68,114 +66,6 @@
     <t>Итого</t>
   </si>
   <si>
-    <t>Алишеров</t>
-  </si>
-  <si>
-    <t>Аллаярова</t>
-  </si>
-  <si>
-    <t>Антипов</t>
-  </si>
-  <si>
-    <t>Арсланов</t>
-  </si>
-  <si>
-    <t>Гусаков</t>
-  </si>
-  <si>
-    <t>Дедюхин</t>
-  </si>
-  <si>
-    <t>Иванова</t>
-  </si>
-  <si>
-    <t>Камалов</t>
-  </si>
-  <si>
-    <t>Любенко</t>
-  </si>
-  <si>
-    <t>Максутов</t>
-  </si>
-  <si>
-    <t>Никифорович</t>
-  </si>
-  <si>
-    <t>Овчинников</t>
-  </si>
-  <si>
-    <t>Романова</t>
-  </si>
-  <si>
-    <t>Симоненко</t>
-  </si>
-  <si>
-    <t>Стариков</t>
-  </si>
-  <si>
-    <t>Сулейманов</t>
-  </si>
-  <si>
-    <t>Тураев</t>
-  </si>
-  <si>
-    <t>Хакимджанов</t>
-  </si>
-  <si>
-    <t>Хасанов</t>
-  </si>
-  <si>
-    <t>Чарыев</t>
-  </si>
-  <si>
-    <t>Юсупова</t>
-  </si>
-  <si>
-    <t>Куропаткин 1</t>
-  </si>
-  <si>
-    <t>Куропаткин 2</t>
-  </si>
-  <si>
-    <t>Куропаткин 3</t>
-  </si>
-  <si>
-    <t>Куропаткин 4</t>
-  </si>
-  <si>
-    <t>Куропаткин 5</t>
-  </si>
-  <si>
-    <t>Куропаткин 6</t>
-  </si>
-  <si>
-    <t>Куропаткин 7</t>
-  </si>
-  <si>
-    <t>Куропаткин 8</t>
-  </si>
-  <si>
-    <t>Куропаткин 9</t>
-  </si>
-  <si>
-    <t>Куропаткин 10</t>
-  </si>
-  <si>
-    <t>Куропаткин 11</t>
-  </si>
-  <si>
-    <t>Куропаткин 12</t>
-  </si>
-  <si>
-    <t>Куропаткин 13</t>
-  </si>
-  <si>
-    <t>Куропаткин 14</t>
-  </si>
-  <si>
-    <t>Куропаткин 15</t>
-  </si>
-  <si>
     <t>Общая сумма графы “Итого”</t>
   </si>
   <si>
@@ -186,13 +76,121 @@
   </si>
   <si>
     <t>Максимальная сумма к оплате</t>
+  </si>
+  <si>
+    <t>Дедю́хин</t>
+  </si>
+  <si>
+    <t>Алише́ров</t>
+  </si>
+  <si>
+    <t>Аллая́рова</t>
+  </si>
+  <si>
+    <t>Анти́пов</t>
+  </si>
+  <si>
+    <t>Арсла́нов</t>
+  </si>
+  <si>
+    <t>Гусако́в</t>
+  </si>
+  <si>
+    <t>Ивано́ва</t>
+  </si>
+  <si>
+    <t>Кама́лов</t>
+  </si>
+  <si>
+    <t>Любе́нко</t>
+  </si>
+  <si>
+    <t>Максу́тов</t>
+  </si>
+  <si>
+    <t>Никифоро́вич</t>
+  </si>
+  <si>
+    <t>Овчи́нников</t>
+  </si>
+  <si>
+    <t>Рома́нова</t>
+  </si>
+  <si>
+    <t>Симоне́нко</t>
+  </si>
+  <si>
+    <t>Ста́риков</t>
+  </si>
+  <si>
+    <t>Сулейма́нов</t>
+  </si>
+  <si>
+    <t>Тура́ев</t>
+  </si>
+  <si>
+    <t>Хакимджа́нов</t>
+  </si>
+  <si>
+    <t>Хаса́нов</t>
+  </si>
+  <si>
+    <t>Чары́ев</t>
+  </si>
+  <si>
+    <t>Юсу́пова</t>
+  </si>
+  <si>
+    <t>Куропа́ткин 1</t>
+  </si>
+  <si>
+    <t>Куропа́ткин 2</t>
+  </si>
+  <si>
+    <t>Куропа́ткин 3</t>
+  </si>
+  <si>
+    <t>Куропа́ткин 4</t>
+  </si>
+  <si>
+    <t>Куропа́ткин 5</t>
+  </si>
+  <si>
+    <t>Куропа́ткин 6</t>
+  </si>
+  <si>
+    <t>Куропа́ткин 7</t>
+  </si>
+  <si>
+    <t>Куропа́ткин 8</t>
+  </si>
+  <si>
+    <t>Куропа́ткин 9</t>
+  </si>
+  <si>
+    <t>Куропа́ткин 10</t>
+  </si>
+  <si>
+    <t>Куропа́ткин 11</t>
+  </si>
+  <si>
+    <t>Куропа́ткин 12</t>
+  </si>
+  <si>
+    <t>Куропа́ткин 13</t>
+  </si>
+  <si>
+    <t>Куропа́ткин 14</t>
+  </si>
+  <si>
+    <t>Куропа́ткин 15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,19 +199,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF282C34"/>
-      <name val="Times New Roman"/>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -236,25 +231,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -572,35 +555,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13" style="2" customWidth="1"/>
-    <col min="2" max="2" width="38.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="2"/>
-    <col min="6" max="6" width="14.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="13" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="1"/>
+    <col min="6" max="6" width="14.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>59</v>
       </c>
-      <c r="B1" s="3"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -631,12 +613,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>11</v>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -649,10 +631,10 @@
         <f>C3*D3</f>
         <v>4543</v>
       </c>
-      <c r="F3" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G3" s="5">
+      <c r="F3" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G3" s="2">
         <v>44805</v>
       </c>
       <c r="H3" s="1">
@@ -671,12 +653,12 @@
         <v>4543</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>12</v>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C4" s="1">
         <v>69.5</v>
@@ -689,10 +671,10 @@
         <f t="shared" ref="E4:E38" si="1">C4*D4</f>
         <v>4510.55</v>
       </c>
-      <c r="F4" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G4" s="5">
+      <c r="F4" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G4" s="2">
         <v>44806</v>
       </c>
       <c r="H4" s="1">
@@ -711,12 +693,12 @@
         <v>4510.55</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>13</v>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C5" s="1">
         <v>69</v>
@@ -729,10 +711,10 @@
         <f t="shared" si="1"/>
         <v>4478.1000000000004</v>
       </c>
-      <c r="F5" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G5" s="5">
+      <c r="F5" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G5" s="2">
         <v>44807</v>
       </c>
       <c r="H5" s="1">
@@ -751,12 +733,12 @@
         <v>4478.1000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>14</v>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C6" s="1">
         <v>68.5</v>
@@ -769,10 +751,10 @@
         <f t="shared" si="1"/>
         <v>4445.6500000000005</v>
       </c>
-      <c r="F6" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G6" s="5">
+      <c r="F6" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G6" s="2">
         <v>44808</v>
       </c>
       <c r="H6" s="1">
@@ -791,12 +773,12 @@
         <v>4445.6500000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>15</v>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C7" s="1">
         <v>68</v>
@@ -809,10 +791,10 @@
         <f t="shared" si="1"/>
         <v>4413.2000000000007</v>
       </c>
-      <c r="F7" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G7" s="5">
+      <c r="F7" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G7" s="2">
         <v>44809</v>
       </c>
       <c r="H7" s="1">
@@ -831,12 +813,12 @@
         <v>4413.2000000000007</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>16</v>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C8" s="1">
         <v>67.5</v>
@@ -849,10 +831,10 @@
         <f t="shared" si="1"/>
         <v>4380.75</v>
       </c>
-      <c r="F8" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G8" s="5">
+      <c r="F8" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G8" s="2">
         <v>44810</v>
       </c>
       <c r="H8" s="1">
@@ -871,12 +853,12 @@
         <v>4380.75</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>17</v>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C9" s="1">
         <v>67</v>
@@ -889,10 +871,10 @@
         <f t="shared" si="1"/>
         <v>4348.3</v>
       </c>
-      <c r="F9" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G9" s="5">
+      <c r="F9" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G9" s="2">
         <v>44811</v>
       </c>
       <c r="H9" s="1">
@@ -911,12 +893,12 @@
         <v>4348.3</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>18</v>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C10" s="1">
         <v>66.5</v>
@@ -929,10 +911,10 @@
         <f t="shared" si="1"/>
         <v>4315.8500000000004</v>
       </c>
-      <c r="F10" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G10" s="5">
+      <c r="F10" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G10" s="2">
         <v>44812</v>
       </c>
       <c r="H10" s="1">
@@ -951,12 +933,12 @@
         <v>4315.8500000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>19</v>
+      <c r="B11" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C11" s="1">
         <v>66</v>
@@ -969,10 +951,10 @@
         <f t="shared" si="1"/>
         <v>4283.4000000000005</v>
       </c>
-      <c r="F11" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G11" s="5">
+      <c r="F11" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G11" s="2">
         <v>44813</v>
       </c>
       <c r="H11" s="1">
@@ -991,12 +973,12 @@
         <v>4283.4000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>20</v>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C12" s="1">
         <v>65.5</v>
@@ -1009,10 +991,10 @@
         <f t="shared" si="1"/>
         <v>4250.9500000000007</v>
       </c>
-      <c r="F12" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G12" s="5">
+      <c r="F12" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G12" s="2">
         <v>44814</v>
       </c>
       <c r="H12" s="1">
@@ -1031,12 +1013,12 @@
         <v>4260.9500000000007</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>21</v>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C13" s="1">
         <v>65</v>
@@ -1049,10 +1031,10 @@
         <f t="shared" si="1"/>
         <v>4218.5</v>
       </c>
-      <c r="F13" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G13" s="5">
+      <c r="F13" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G13" s="2">
         <v>44815</v>
       </c>
       <c r="H13" s="1">
@@ -1071,12 +1053,12 @@
         <v>4238.5</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>22</v>
+      <c r="B14" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C14" s="1">
         <v>64.5</v>
@@ -1089,10 +1071,10 @@
         <f t="shared" si="1"/>
         <v>4186.05</v>
       </c>
-      <c r="F14" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G14" s="5">
+      <c r="F14" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G14" s="2">
         <v>44816</v>
       </c>
       <c r="H14" s="1">
@@ -1111,12 +1093,12 @@
         <v>4216.05</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>23</v>
+      <c r="B15" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C15" s="1">
         <v>64</v>
@@ -1129,10 +1111,10 @@
         <f t="shared" si="1"/>
         <v>4153.6000000000004</v>
       </c>
-      <c r="F15" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G15" s="5">
+      <c r="F15" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G15" s="2">
         <v>44817</v>
       </c>
       <c r="H15" s="1">
@@ -1151,12 +1133,12 @@
         <v>4193.6000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>24</v>
+      <c r="B16" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C16" s="1">
         <v>63.5</v>
@@ -1169,10 +1151,10 @@
         <f t="shared" si="1"/>
         <v>4121.1500000000005</v>
       </c>
-      <c r="F16" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G16" s="5">
+      <c r="F16" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G16" s="2">
         <v>44818</v>
       </c>
       <c r="H16" s="1">
@@ -1191,12 +1173,12 @@
         <v>4171.1500000000005</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>25</v>
+      <c r="B17" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="C17" s="1">
         <v>63</v>
@@ -1209,10 +1191,10 @@
         <f t="shared" si="1"/>
         <v>4088.7000000000003</v>
       </c>
-      <c r="F17" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G17" s="5">
+      <c r="F17" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G17" s="2">
         <v>44819</v>
       </c>
       <c r="H17" s="1">
@@ -1231,12 +1213,12 @@
         <v>4148.7000000000007</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>26</v>
+      <c r="B18" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C18" s="1">
         <v>62.5</v>
@@ -1249,10 +1231,10 @@
         <f t="shared" si="1"/>
         <v>4056.2500000000005</v>
       </c>
-      <c r="F18" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G18" s="5">
+      <c r="F18" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G18" s="2">
         <v>44820</v>
       </c>
       <c r="H18" s="1">
@@ -1271,12 +1253,12 @@
         <v>4126.25</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>27</v>
+      <c r="B19" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C19" s="1">
         <v>62</v>
@@ -1289,10 +1271,10 @@
         <f t="shared" si="1"/>
         <v>4023.8</v>
       </c>
-      <c r="F19" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G19" s="5">
+      <c r="F19" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G19" s="2">
         <v>44821</v>
       </c>
       <c r="H19" s="1">
@@ -1311,12 +1293,12 @@
         <v>4103.8</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>28</v>
+      <c r="B20" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="C20" s="1">
         <v>61.5</v>
@@ -1329,10 +1311,10 @@
         <f t="shared" si="1"/>
         <v>3991.3500000000004</v>
       </c>
-      <c r="F20" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G20" s="5">
+      <c r="F20" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G20" s="2">
         <v>44822</v>
       </c>
       <c r="H20" s="1">
@@ -1351,12 +1333,12 @@
         <v>4081.3500000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>29</v>
+      <c r="B21" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C21" s="1">
         <v>61</v>
@@ -1369,10 +1351,10 @@
         <f t="shared" si="1"/>
         <v>3958.9000000000005</v>
       </c>
-      <c r="F21" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G21" s="5">
+      <c r="F21" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G21" s="2">
         <v>44823</v>
       </c>
       <c r="H21" s="1">
@@ -1391,12 +1373,12 @@
         <v>4058.9000000000005</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>30</v>
+      <c r="B22" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="C22" s="1">
         <v>60.5</v>
@@ -1409,10 +1391,10 @@
         <f t="shared" si="1"/>
         <v>3926.4500000000003</v>
       </c>
-      <c r="F22" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G22" s="5">
+      <c r="F22" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G22" s="2">
         <v>44824</v>
       </c>
       <c r="H22" s="1">
@@ -1431,12 +1413,12 @@
         <v>4036.4500000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>31</v>
+      <c r="B23" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="C23" s="1">
         <v>60</v>
@@ -1449,10 +1431,10 @@
         <f t="shared" si="1"/>
         <v>3894.0000000000005</v>
       </c>
-      <c r="F23" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G23" s="5">
+      <c r="F23" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G23" s="2">
         <v>44825</v>
       </c>
       <c r="H23" s="1">
@@ -1471,12 +1453,12 @@
         <v>4014.0000000000005</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C24" s="1">
         <v>59.5</v>
@@ -1489,10 +1471,10 @@
         <f t="shared" si="1"/>
         <v>3861.55</v>
       </c>
-      <c r="F24" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G24" s="5">
+      <c r="F24" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G24" s="2">
         <v>44826</v>
       </c>
       <c r="H24" s="1">
@@ -1511,12 +1493,12 @@
         <v>3991.55</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C25" s="1">
         <v>59</v>
@@ -1529,10 +1511,10 @@
         <f t="shared" si="1"/>
         <v>3829.1000000000004</v>
       </c>
-      <c r="F25" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G25" s="5">
+      <c r="F25" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G25" s="2">
         <v>44827</v>
       </c>
       <c r="H25" s="1">
@@ -1551,12 +1533,12 @@
         <v>3969.1000000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C26" s="1">
         <v>58.5</v>
@@ -1569,10 +1551,10 @@
         <f t="shared" si="1"/>
         <v>3796.6500000000005</v>
       </c>
-      <c r="F26" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G26" s="5">
+      <c r="F26" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G26" s="2">
         <v>44828</v>
       </c>
       <c r="H26" s="1">
@@ -1591,12 +1573,12 @@
         <v>3946.6500000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C27" s="1">
         <v>58</v>
@@ -1609,10 +1591,10 @@
         <f t="shared" si="1"/>
         <v>3764.2000000000003</v>
       </c>
-      <c r="F27" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G27" s="5">
+      <c r="F27" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G27" s="2">
         <v>44829</v>
       </c>
       <c r="H27" s="1">
@@ -1631,12 +1613,12 @@
         <v>3924.2000000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C28" s="1">
         <v>57.5</v>
@@ -1649,10 +1631,10 @@
         <f t="shared" si="1"/>
         <v>3731.7500000000005</v>
       </c>
-      <c r="F28" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G28" s="5">
+      <c r="F28" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G28" s="2">
         <v>44830</v>
       </c>
       <c r="H28" s="1">
@@ -1671,12 +1653,12 @@
         <v>3901.7500000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C29" s="1">
         <v>57</v>
@@ -1689,10 +1671,10 @@
         <f t="shared" si="1"/>
         <v>3699.3</v>
       </c>
-      <c r="F29" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G29" s="5">
+      <c r="F29" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G29" s="2">
         <v>44831</v>
       </c>
       <c r="H29" s="1">
@@ -1711,12 +1693,12 @@
         <v>3879.3</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C30" s="1">
         <v>56.5</v>
@@ -1729,10 +1711,10 @@
         <f t="shared" si="1"/>
         <v>3666.8500000000004</v>
       </c>
-      <c r="F30" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G30" s="5">
+      <c r="F30" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G30" s="2">
         <v>44832</v>
       </c>
       <c r="H30" s="1">
@@ -1751,12 +1733,12 @@
         <v>3856.8500000000004</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C31" s="1">
         <v>56</v>
@@ -1769,10 +1751,10 @@
         <f t="shared" si="1"/>
         <v>3634.4000000000005</v>
       </c>
-      <c r="F31" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G31" s="5">
+      <c r="F31" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G31" s="2">
         <v>44833</v>
       </c>
       <c r="H31" s="1">
@@ -1791,12 +1773,12 @@
         <v>3834.4000000000005</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C32" s="1">
         <v>55.5</v>
@@ -1809,10 +1791,10 @@
         <f t="shared" si="1"/>
         <v>3601.9500000000003</v>
       </c>
-      <c r="F32" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G32" s="5">
+      <c r="F32" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G32" s="2">
         <v>44834</v>
       </c>
       <c r="H32" s="1">
@@ -1831,12 +1813,12 @@
         <v>3811.9500000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C33" s="1">
         <v>55</v>
@@ -1849,10 +1831,10 @@
         <f t="shared" si="1"/>
         <v>3569.5000000000005</v>
       </c>
-      <c r="F33" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G33" s="5">
+      <c r="F33" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G33" s="2">
         <v>44835</v>
       </c>
       <c r="H33" s="1">
@@ -1871,12 +1853,12 @@
         <v>3789.5000000000005</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C34" s="1">
         <v>54.5</v>
@@ -1889,10 +1871,10 @@
         <f t="shared" si="1"/>
         <v>3537.05</v>
       </c>
-      <c r="F34" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G34" s="5">
+      <c r="F34" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G34" s="2">
         <v>44836</v>
       </c>
       <c r="H34" s="1">
@@ -1911,12 +1893,12 @@
         <v>3767.05</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C35" s="1">
         <v>54</v>
@@ -1929,10 +1911,10 @@
         <f t="shared" si="1"/>
         <v>1752.3000000000002</v>
       </c>
-      <c r="F35" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G35" s="5">
+      <c r="F35" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G35" s="2">
         <v>44837</v>
       </c>
       <c r="H35" s="1">
@@ -1951,12 +1933,12 @@
         <v>1992.3000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C36" s="1">
         <v>53.5</v>
@@ -1969,10 +1951,10 @@
         <f t="shared" si="1"/>
         <v>1736.075</v>
       </c>
-      <c r="F36" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G36" s="5">
+      <c r="F36" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G36" s="2">
         <v>44838</v>
       </c>
       <c r="H36" s="1">
@@ -1991,12 +1973,12 @@
         <v>1986.075</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C37" s="1">
         <v>53</v>
@@ -2009,10 +1991,10 @@
         <f t="shared" si="1"/>
         <v>1719.8500000000001</v>
       </c>
-      <c r="F37" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G37" s="5">
+      <c r="F37" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G37" s="2">
         <v>44839</v>
       </c>
       <c r="H37" s="1">
@@ -2031,12 +2013,12 @@
         <v>1979.8500000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C38" s="1">
         <v>52.5</v>
@@ -2049,10 +2031,10 @@
         <f t="shared" si="1"/>
         <v>1703.6250000000002</v>
       </c>
-      <c r="F38" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G38" s="5">
+      <c r="F38" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G38" s="2">
         <v>44840</v>
       </c>
       <c r="H38" s="1">
@@ -2071,36 +2053,36 @@
         <v>1973.6250000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B40" s="4" t="s">
-        <v>47</v>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B40" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C40" s="1">
         <f>INT(SUM(K3:K38))</f>
         <v>139972</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B41" s="4" t="s">
-        <v>48</v>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B41" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B42" s="4" t="s">
-        <v>49</v>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B42" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B43" s="4" t="s">
-        <v>50</v>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B43" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>
@@ -2108,6 +2090,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/LR3/table_1_59.xlsx
+++ b/LR3/table_1_59.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22B68D9-2357-48F8-A62E-2CE573D705DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3967BF-1A27-4248-B224-83136204A092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,27 +36,15 @@
     <t>№ квартиры</t>
   </si>
   <si>
-    <t>Фамилия квартиросъемщика</t>
-  </si>
-  <si>
     <t>Площадь, кв.м.</t>
   </si>
   <si>
-    <t>Тариф, руб.</t>
-  </si>
-  <si>
-    <t>Сумма</t>
-  </si>
-  <si>
     <t>Срок оплаты</t>
   </si>
   <si>
     <t>Дата оплаты</t>
   </si>
   <si>
-    <t>Просрочка</t>
-  </si>
-  <si>
     <t>Пени за 1 день</t>
   </si>
   <si>
@@ -78,119 +66,131 @@
     <t>Максимальная сумма к оплате</t>
   </si>
   <si>
-    <t>Дедю́хин</t>
-  </si>
-  <si>
-    <t>Алише́ров</t>
-  </si>
-  <si>
-    <t>Аллая́рова</t>
-  </si>
-  <si>
-    <t>Анти́пов</t>
-  </si>
-  <si>
-    <t>Арсла́нов</t>
-  </si>
-  <si>
-    <t>Гусако́в</t>
-  </si>
-  <si>
-    <t>Ивано́ва</t>
-  </si>
-  <si>
-    <t>Кама́лов</t>
-  </si>
-  <si>
-    <t>Любе́нко</t>
-  </si>
-  <si>
-    <t>Максу́тов</t>
-  </si>
-  <si>
-    <t>Никифоро́вич</t>
-  </si>
-  <si>
-    <t>Овчи́нников</t>
-  </si>
-  <si>
-    <t>Рома́нова</t>
-  </si>
-  <si>
-    <t>Симоне́нко</t>
-  </si>
-  <si>
-    <t>Ста́риков</t>
-  </si>
-  <si>
-    <t>Сулейма́нов</t>
-  </si>
-  <si>
-    <t>Тура́ев</t>
-  </si>
-  <si>
-    <t>Хакимджа́нов</t>
-  </si>
-  <si>
-    <t>Хаса́нов</t>
-  </si>
-  <si>
-    <t>Чары́ев</t>
-  </si>
-  <si>
-    <t>Юсу́пова</t>
-  </si>
-  <si>
-    <t>Куропа́ткин 1</t>
-  </si>
-  <si>
-    <t>Куропа́ткин 2</t>
-  </si>
-  <si>
-    <t>Куропа́ткин 3</t>
-  </si>
-  <si>
-    <t>Куропа́ткин 4</t>
-  </si>
-  <si>
-    <t>Куропа́ткин 5</t>
-  </si>
-  <si>
-    <t>Куропа́ткин 6</t>
-  </si>
-  <si>
-    <t>Куропа́ткин 7</t>
-  </si>
-  <si>
-    <t>Куропа́ткин 8</t>
-  </si>
-  <si>
-    <t>Куропа́ткин 9</t>
-  </si>
-  <si>
-    <t>Куропа́ткин 10</t>
-  </si>
-  <si>
-    <t>Куропа́ткин 11</t>
-  </si>
-  <si>
-    <t>Куропа́ткин 12</t>
-  </si>
-  <si>
-    <t>Куропа́ткин 13</t>
-  </si>
-  <si>
-    <t>Куропа́ткин 14</t>
-  </si>
-  <si>
-    <t>Куропа́ткин 15</t>
+    <t>Алишеров</t>
+  </si>
+  <si>
+    <t>Аллаярова</t>
+  </si>
+  <si>
+    <t>Антипов</t>
+  </si>
+  <si>
+    <t>Арсланов</t>
+  </si>
+  <si>
+    <t>Гусаков</t>
+  </si>
+  <si>
+    <t>Дедюхин</t>
+  </si>
+  <si>
+    <t>Иванова</t>
+  </si>
+  <si>
+    <t>Камалов</t>
+  </si>
+  <si>
+    <t>Любенко</t>
+  </si>
+  <si>
+    <t>Максутов</t>
+  </si>
+  <si>
+    <t>Никифорович</t>
+  </si>
+  <si>
+    <t>Овчинников</t>
+  </si>
+  <si>
+    <t>Романова</t>
+  </si>
+  <si>
+    <t>Симоненко</t>
+  </si>
+  <si>
+    <t>Стариков</t>
+  </si>
+  <si>
+    <t>Сулейманов</t>
+  </si>
+  <si>
+    <t>Тураев</t>
+  </si>
+  <si>
+    <t>Хакимджанов</t>
+  </si>
+  <si>
+    <t>Хасанов</t>
+  </si>
+  <si>
+    <t>Чарыев</t>
+  </si>
+  <si>
+    <t>Юсупова</t>
+  </si>
+  <si>
+    <t>Куропаткин 1</t>
+  </si>
+  <si>
+    <t>Куропаткин 2</t>
+  </si>
+  <si>
+    <t>Куропаткин 3</t>
+  </si>
+  <si>
+    <t>Куропаткин 4</t>
+  </si>
+  <si>
+    <t>Куропаткин 5</t>
+  </si>
+  <si>
+    <t>Куропаткин 6</t>
+  </si>
+  <si>
+    <t>Куропаткин 7</t>
+  </si>
+  <si>
+    <t>Куропаткин 8</t>
+  </si>
+  <si>
+    <t>Куропаткин 9</t>
+  </si>
+  <si>
+    <t>Куропаткин 10</t>
+  </si>
+  <si>
+    <t>Куропаткин 11</t>
+  </si>
+  <si>
+    <t>Куропаткин 12</t>
+  </si>
+  <si>
+    <t>Куропаткин 13</t>
+  </si>
+  <si>
+    <t>Куропаткин 14</t>
+  </si>
+  <si>
+    <t>Куропаткин 15</t>
+  </si>
+  <si>
+    <t>Фамилия квартиросъёмщика</t>
+  </si>
+  <si>
+    <t>Сумма, руб.</t>
+  </si>
+  <si>
+    <t>Тариф, руб./кв.м.</t>
+  </si>
+  <si>
+    <t>Просрочка, дней</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,6 +209,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -231,13 +238,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -555,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -583,42 +593,42 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -657,8 +667,8 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C4" s="1">
         <v>69.5</v>
@@ -697,8 +707,8 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C5" s="1">
         <v>69</v>
@@ -737,8 +747,8 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="C6" s="1">
         <v>68.5</v>
@@ -777,8 +787,8 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
+      <c r="B7" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C7" s="1">
         <v>68</v>
@@ -817,8 +827,8 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
+      <c r="B8" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="C8" s="1">
         <v>67.5</v>
@@ -857,8 +867,8 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>21</v>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C9" s="1">
         <v>67</v>
@@ -897,8 +907,8 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>22</v>
+      <c r="B10" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="C10" s="1">
         <v>66.5</v>
@@ -937,8 +947,8 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>23</v>
+      <c r="B11" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="C11" s="1">
         <v>66</v>
@@ -977,8 +987,8 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>24</v>
+      <c r="B12" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="C12" s="1">
         <v>65.5</v>
@@ -1017,8 +1027,8 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
+      <c r="B13" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="C13" s="1">
         <v>65</v>
@@ -1057,8 +1067,8 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>26</v>
+      <c r="B14" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="C14" s="1">
         <v>64.5</v>
@@ -1097,8 +1107,8 @@
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>27</v>
+      <c r="B15" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="C15" s="1">
         <v>64</v>
@@ -1137,8 +1147,8 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>28</v>
+      <c r="B16" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C16" s="1">
         <v>63.5</v>
@@ -1177,8 +1187,8 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>29</v>
+      <c r="B17" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="C17" s="1">
         <v>63</v>
@@ -1217,8 +1227,8 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>30</v>
+      <c r="B18" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="C18" s="1">
         <v>62.5</v>
@@ -1257,8 +1267,8 @@
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>31</v>
+      <c r="B19" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="C19" s="1">
         <v>62</v>
@@ -1297,8 +1307,8 @@
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>32</v>
+      <c r="B20" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C20" s="1">
         <v>61.5</v>
@@ -1337,8 +1347,8 @@
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>33</v>
+      <c r="B21" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="C21" s="1">
         <v>61</v>
@@ -1377,8 +1387,8 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>34</v>
+      <c r="B22" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="C22" s="1">
         <v>60.5</v>
@@ -1417,8 +1427,8 @@
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>35</v>
+      <c r="B23" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="C23" s="1">
         <v>60</v>
@@ -1458,7 +1468,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C24" s="1">
         <v>59.5</v>
@@ -1498,7 +1508,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C25" s="1">
         <v>59</v>
@@ -1538,7 +1548,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C26" s="1">
         <v>58.5</v>
@@ -1578,7 +1588,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C27" s="1">
         <v>58</v>
@@ -1618,7 +1628,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C28" s="1">
         <v>57.5</v>
@@ -1658,7 +1668,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C29" s="1">
         <v>57</v>
@@ -1698,7 +1708,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C30" s="1">
         <v>56.5</v>
@@ -1738,7 +1748,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C31" s="1">
         <v>56</v>
@@ -1778,7 +1788,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C32" s="1">
         <v>55.5</v>
@@ -1818,7 +1828,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C33" s="1">
         <v>55</v>
@@ -1858,7 +1868,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C34" s="1">
         <v>54.5</v>
@@ -1898,7 +1908,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C35" s="1">
         <v>54</v>
@@ -1938,7 +1948,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C36" s="1">
         <v>53.5</v>
@@ -1978,7 +1988,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C37" s="1">
         <v>53</v>
@@ -2018,7 +2028,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C38" s="1">
         <v>52.5</v>
@@ -2055,7 +2065,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C40" s="1">
         <f>INT(SUM(K3:K38))</f>
@@ -2064,7 +2074,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2073,7 +2083,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2082,7 +2092,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_59.xlsx
+++ b/LR3/table_1_59.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3967BF-1A27-4248-B224-83136204A092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A962095-D34D-4236-B9ED-6AFCF666458C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -565,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -648,7 +648,7 @@
         <v>44805</v>
       </c>
       <c r="H3" s="1">
-        <f>IF(G3-F3&lt;=0,0,G3-F3)</f>
+        <f>IF(G3&lt;F3,0,G3-F3)</f>
         <v>0</v>
       </c>
       <c r="I3" s="1">
@@ -685,10 +685,11 @@
         <v>44813</v>
       </c>
       <c r="G4" s="2">
+        <f>G3+1</f>
         <v>44806</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H38" si="2">IF(G4-F4&lt;=0,0,G4-F4)</f>
+        <f t="shared" ref="H4:H38" si="2">IF(G4&lt;F4,0,G4-F4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="1">
@@ -725,6 +726,7 @@
         <v>44813</v>
       </c>
       <c r="G5" s="2">
+        <f t="shared" ref="G5:G38" si="5">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="1">
@@ -765,6 +767,7 @@
         <v>44813</v>
       </c>
       <c r="G6" s="2">
+        <f t="shared" si="5"/>
         <v>44808</v>
       </c>
       <c r="H6" s="1">
@@ -805,6 +808,7 @@
         <v>44813</v>
       </c>
       <c r="G7" s="2">
+        <f t="shared" si="5"/>
         <v>44809</v>
       </c>
       <c r="H7" s="1">
@@ -845,6 +849,7 @@
         <v>44813</v>
       </c>
       <c r="G8" s="2">
+        <f t="shared" si="5"/>
         <v>44810</v>
       </c>
       <c r="H8" s="1">
@@ -885,6 +890,7 @@
         <v>44813</v>
       </c>
       <c r="G9" s="2">
+        <f t="shared" si="5"/>
         <v>44811</v>
       </c>
       <c r="H9" s="1">
@@ -925,6 +931,7 @@
         <v>44813</v>
       </c>
       <c r="G10" s="2">
+        <f t="shared" si="5"/>
         <v>44812</v>
       </c>
       <c r="H10" s="1">
@@ -965,6 +972,7 @@
         <v>44813</v>
       </c>
       <c r="G11" s="2">
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="H11" s="1">
@@ -1005,6 +1013,7 @@
         <v>44813</v>
       </c>
       <c r="G12" s="2">
+        <f t="shared" si="5"/>
         <v>44814</v>
       </c>
       <c r="H12" s="1">
@@ -1045,6 +1054,7 @@
         <v>44813</v>
       </c>
       <c r="G13" s="2">
+        <f t="shared" si="5"/>
         <v>44815</v>
       </c>
       <c r="H13" s="1">
@@ -1085,6 +1095,7 @@
         <v>44813</v>
       </c>
       <c r="G14" s="2">
+        <f t="shared" si="5"/>
         <v>44816</v>
       </c>
       <c r="H14" s="1">
@@ -1125,6 +1136,7 @@
         <v>44813</v>
       </c>
       <c r="G15" s="2">
+        <f t="shared" si="5"/>
         <v>44817</v>
       </c>
       <c r="H15" s="1">
@@ -1165,6 +1177,7 @@
         <v>44813</v>
       </c>
       <c r="G16" s="2">
+        <f t="shared" si="5"/>
         <v>44818</v>
       </c>
       <c r="H16" s="1">
@@ -1205,6 +1218,7 @@
         <v>44813</v>
       </c>
       <c r="G17" s="2">
+        <f t="shared" si="5"/>
         <v>44819</v>
       </c>
       <c r="H17" s="1">
@@ -1245,6 +1259,7 @@
         <v>44813</v>
       </c>
       <c r="G18" s="2">
+        <f t="shared" si="5"/>
         <v>44820</v>
       </c>
       <c r="H18" s="1">
@@ -1285,6 +1300,7 @@
         <v>44813</v>
       </c>
       <c r="G19" s="2">
+        <f t="shared" si="5"/>
         <v>44821</v>
       </c>
       <c r="H19" s="1">
@@ -1325,6 +1341,7 @@
         <v>44813</v>
       </c>
       <c r="G20" s="2">
+        <f t="shared" si="5"/>
         <v>44822</v>
       </c>
       <c r="H20" s="1">
@@ -1365,6 +1382,7 @@
         <v>44813</v>
       </c>
       <c r="G21" s="2">
+        <f t="shared" si="5"/>
         <v>44823</v>
       </c>
       <c r="H21" s="1">
@@ -1405,6 +1423,7 @@
         <v>44813</v>
       </c>
       <c r="G22" s="2">
+        <f t="shared" si="5"/>
         <v>44824</v>
       </c>
       <c r="H22" s="1">
@@ -1445,6 +1464,7 @@
         <v>44813</v>
       </c>
       <c r="G23" s="2">
+        <f t="shared" si="5"/>
         <v>44825</v>
       </c>
       <c r="H23" s="1">
@@ -1485,6 +1505,7 @@
         <v>44813</v>
       </c>
       <c r="G24" s="2">
+        <f t="shared" si="5"/>
         <v>44826</v>
       </c>
       <c r="H24" s="1">
@@ -1525,6 +1546,7 @@
         <v>44813</v>
       </c>
       <c r="G25" s="2">
+        <f t="shared" si="5"/>
         <v>44827</v>
       </c>
       <c r="H25" s="1">
@@ -1565,6 +1587,7 @@
         <v>44813</v>
       </c>
       <c r="G26" s="2">
+        <f t="shared" si="5"/>
         <v>44828</v>
       </c>
       <c r="H26" s="1">
@@ -1605,6 +1628,7 @@
         <v>44813</v>
       </c>
       <c r="G27" s="2">
+        <f t="shared" si="5"/>
         <v>44829</v>
       </c>
       <c r="H27" s="1">
@@ -1645,6 +1669,7 @@
         <v>44813</v>
       </c>
       <c r="G28" s="2">
+        <f t="shared" si="5"/>
         <v>44830</v>
       </c>
       <c r="H28" s="1">
@@ -1685,6 +1710,7 @@
         <v>44813</v>
       </c>
       <c r="G29" s="2">
+        <f t="shared" si="5"/>
         <v>44831</v>
       </c>
       <c r="H29" s="1">
@@ -1725,6 +1751,7 @@
         <v>44813</v>
       </c>
       <c r="G30" s="2">
+        <f t="shared" si="5"/>
         <v>44832</v>
       </c>
       <c r="H30" s="1">
@@ -1765,6 +1792,7 @@
         <v>44813</v>
       </c>
       <c r="G31" s="2">
+        <f t="shared" si="5"/>
         <v>44833</v>
       </c>
       <c r="H31" s="1">
@@ -1805,6 +1833,7 @@
         <v>44813</v>
       </c>
       <c r="G32" s="2">
+        <f t="shared" si="5"/>
         <v>44834</v>
       </c>
       <c r="H32" s="1">
@@ -1845,6 +1874,7 @@
         <v>44813</v>
       </c>
       <c r="G33" s="2">
+        <f t="shared" si="5"/>
         <v>44835</v>
       </c>
       <c r="H33" s="1">
@@ -1885,6 +1915,7 @@
         <v>44813</v>
       </c>
       <c r="G34" s="2">
+        <f t="shared" si="5"/>
         <v>44836</v>
       </c>
       <c r="H34" s="1">
@@ -1914,7 +1945,7 @@
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f>$A$1*1.1/2</f>
+        <f>(A$1*1.1)/2</f>
         <v>32.450000000000003</v>
       </c>
       <c r="E35" s="1">
@@ -1925,6 +1956,7 @@
         <v>44813</v>
       </c>
       <c r="G35" s="2">
+        <f t="shared" si="5"/>
         <v>44837</v>
       </c>
       <c r="H35" s="1">
@@ -1954,7 +1986,7 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D38" si="5">$A$1*1.1/2</f>
+        <f t="shared" ref="D36:D38" si="6">(A$1*1.1)/2</f>
         <v>32.450000000000003</v>
       </c>
       <c r="E36" s="1">
@@ -1965,6 +1997,7 @@
         <v>44813</v>
       </c>
       <c r="G36" s="2">
+        <f t="shared" si="5"/>
         <v>44838</v>
       </c>
       <c r="H36" s="1">
@@ -1994,7 +2027,7 @@
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>32.450000000000003</v>
       </c>
       <c r="E37" s="1">
@@ -2005,6 +2038,7 @@
         <v>44813</v>
       </c>
       <c r="G37" s="2">
+        <f t="shared" si="5"/>
         <v>44839</v>
       </c>
       <c r="H37" s="1">
@@ -2034,7 +2068,7 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>32.450000000000003</v>
       </c>
       <c r="E38" s="1">
@@ -2045,6 +2079,7 @@
         <v>44813</v>
       </c>
       <c r="G38" s="2">
+        <f t="shared" si="5"/>
         <v>44840</v>
       </c>
       <c r="H38" s="1">

--- a/LR3/table_1_59.xlsx
+++ b/LR3/table_1_59.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A962095-D34D-4236-B9ED-6AFCF666458C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A876F2-6DE2-46B1-ADD7-8FBE69AB18B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,27 +45,6 @@
     <t>Дата оплаты</t>
   </si>
   <si>
-    <t>Пени за 1 день</t>
-  </si>
-  <si>
-    <t>Штраф</t>
-  </si>
-  <si>
-    <t>Итого</t>
-  </si>
-  <si>
-    <t>Общая сумма графы “Итого”</t>
-  </si>
-  <si>
-    <t>Средняя площадь</t>
-  </si>
-  <si>
-    <t>Максимальный срок просрочки</t>
-  </si>
-  <si>
-    <t>Максимальная сумма к оплате</t>
-  </si>
-  <si>
     <t>Алишеров</t>
   </si>
   <si>
@@ -184,6 +163,27 @@
   </si>
   <si>
     <t>Просрочка, дней</t>
+  </si>
+  <si>
+    <t>Пени за 1 день, руб.</t>
+  </si>
+  <si>
+    <t>Штраф, руб.</t>
+  </si>
+  <si>
+    <t>Итого, руб.</t>
+  </si>
+  <si>
+    <t>Общая сумма, руб.</t>
+  </si>
+  <si>
+    <t>Средняя площадь, кв.м.</t>
+  </si>
+  <si>
+    <t>Максимальный срок просрочки, дней</t>
+  </si>
+  <si>
+    <t>Максимальная сумма просрочки, руб.</t>
   </si>
 </sst>
 </file>
@@ -243,11 +243,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -565,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -593,16 +593,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2</v>
@@ -611,24 +611,24 @@
         <v>3</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -641,10 +641,10 @@
         <f>C3*D3</f>
         <v>4543</v>
       </c>
-      <c r="F3" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G3" s="2">
+      <c r="F3" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G3" s="3">
         <v>44805</v>
       </c>
       <c r="H3" s="1">
@@ -667,40 +667,42 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C4" s="1">
+        <f>C3-0.5</f>
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D34" si="0">$A$1*1.1</f>
+        <f>D3</f>
         <v>64.900000000000006</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E38" si="1">C4*D4</f>
+        <f t="shared" ref="E4:E38" si="0">C4*D4</f>
         <v>4510.55</v>
       </c>
-      <c r="F4" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="F4" s="3">
+        <f>F3</f>
+        <v>44813</v>
+      </c>
+      <c r="G4" s="3">
         <f>G3+1</f>
         <v>44806</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H38" si="2">IF(G4&lt;F4,0,G4-F4)</f>
+        <f t="shared" ref="H4:H38" si="1">IF(G4&lt;F4,0,G4-F4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="1">
         <v>10</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J38" si="3">I4*H4</f>
+        <f t="shared" ref="J4:J38" si="2">I4*H4</f>
         <v>0</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" ref="K4:K38" si="4">E4+J4</f>
+        <f t="shared" ref="K4:K38" si="3">E4+J4</f>
         <v>4510.55</v>
       </c>
     </row>
@@ -708,40 +710,42 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>13</v>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C5" s="1">
+        <f t="shared" ref="C5:C38" si="4">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D5:D34" si="5">D4</f>
         <v>64.900000000000006</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4478.1000000000004</v>
       </c>
-      <c r="F5" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G5" s="2">
-        <f t="shared" ref="G5:G38" si="5">G4+1</f>
+      <c r="F5" s="3">
+        <f t="shared" ref="F5:F38" si="6">F4</f>
+        <v>44813</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" ref="G5:G38" si="7">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I5" s="1">
         <v>10</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4478.1000000000004</v>
       </c>
     </row>
@@ -749,40 +753,42 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>14</v>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C6" s="1">
+        <f t="shared" si="4"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4445.6500000000005</v>
       </c>
-      <c r="F6" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G6" s="2">
-        <f t="shared" si="5"/>
+      <c r="F6" s="3">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="7"/>
         <v>44808</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I6" s="1">
         <v>10</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4445.6500000000005</v>
       </c>
     </row>
@@ -790,40 +796,42 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>15</v>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C7" s="1">
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4413.2000000000007</v>
       </c>
-      <c r="F7" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G7" s="2">
-        <f t="shared" si="5"/>
+      <c r="F7" s="3">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="7"/>
         <v>44809</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I7" s="1">
         <v>10</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4413.2000000000007</v>
       </c>
     </row>
@@ -831,40 +839,42 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>16</v>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C8" s="1">
+        <f t="shared" si="4"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4380.75</v>
       </c>
-      <c r="F8" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G8" s="2">
-        <f t="shared" si="5"/>
+      <c r="F8" s="3">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="7"/>
         <v>44810</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I8" s="1">
         <v>10</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4380.75</v>
       </c>
     </row>
@@ -872,40 +882,42 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>17</v>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C9" s="1">
+        <f t="shared" si="4"/>
         <v>67</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4348.3</v>
       </c>
-      <c r="F9" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G9" s="2">
-        <f t="shared" si="5"/>
+      <c r="F9" s="3">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="7"/>
         <v>44811</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9" s="1">
         <v>10</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4348.3</v>
       </c>
     </row>
@@ -913,40 +925,42 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>18</v>
+      <c r="B10" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C10" s="1">
+        <f t="shared" si="4"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4315.8500000000004</v>
       </c>
-      <c r="F10" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G10" s="2">
-        <f t="shared" si="5"/>
+      <c r="F10" s="3">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="7"/>
         <v>44812</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10" s="1">
         <v>10</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4315.8500000000004</v>
       </c>
     </row>
@@ -954,40 +968,42 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>19</v>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C11" s="1">
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4283.4000000000005</v>
       </c>
-      <c r="F11" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G11" s="2">
-        <f t="shared" si="5"/>
+      <c r="F11" s="3">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11" s="1">
         <v>10</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4283.4000000000005</v>
       </c>
     </row>
@@ -995,40 +1011,42 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>20</v>
+      <c r="B12" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C12" s="1">
+        <f t="shared" si="4"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4250.9500000000007</v>
       </c>
-      <c r="F12" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G12" s="2">
-        <f t="shared" si="5"/>
+      <c r="F12" s="3">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="7"/>
         <v>44814</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I12" s="1">
         <v>10</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4260.9500000000007</v>
       </c>
     </row>
@@ -1036,40 +1054,42 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>21</v>
+      <c r="B13" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C13" s="1">
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4218.5</v>
       </c>
-      <c r="F13" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G13" s="2">
-        <f t="shared" si="5"/>
+      <c r="F13" s="3">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="7"/>
         <v>44815</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I13" s="1">
         <v>10</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4238.5</v>
       </c>
     </row>
@@ -1077,40 +1097,42 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>22</v>
+      <c r="B14" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C14" s="1">
+        <f t="shared" si="4"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4186.05</v>
       </c>
-      <c r="F14" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G14" s="2">
-        <f t="shared" si="5"/>
+      <c r="F14" s="3">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="7"/>
         <v>44816</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I14" s="1">
         <v>10</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4216.05</v>
       </c>
     </row>
@@ -1118,40 +1140,42 @@
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>23</v>
+      <c r="B15" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C15" s="1">
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4153.6000000000004</v>
       </c>
-      <c r="F15" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G15" s="2">
-        <f t="shared" si="5"/>
+      <c r="F15" s="3">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="7"/>
         <v>44817</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I15" s="1">
         <v>10</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4193.6000000000004</v>
       </c>
     </row>
@@ -1159,40 +1183,42 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>24</v>
+      <c r="B16" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C16" s="1">
+        <f t="shared" si="4"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4121.1500000000005</v>
       </c>
-      <c r="F16" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G16" s="2">
-        <f t="shared" si="5"/>
+      <c r="F16" s="3">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="7"/>
         <v>44818</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I16" s="1">
         <v>10</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4171.1500000000005</v>
       </c>
     </row>
@@ -1200,40 +1226,42 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>25</v>
+      <c r="B17" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="C17" s="1">
+        <f t="shared" si="4"/>
         <v>63</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4088.7000000000003</v>
       </c>
-      <c r="F17" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G17" s="2">
-        <f t="shared" si="5"/>
+      <c r="F17" s="3">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="7"/>
         <v>44819</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="I17" s="1">
         <v>10</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4148.7000000000007</v>
       </c>
     </row>
@@ -1241,40 +1269,42 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>26</v>
+      <c r="B18" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C18" s="1">
+        <f t="shared" si="4"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4056.2500000000005</v>
       </c>
-      <c r="F18" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G18" s="2">
-        <f t="shared" si="5"/>
+      <c r="F18" s="3">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="7"/>
         <v>44820</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I18" s="1">
         <v>10</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4126.25</v>
       </c>
     </row>
@@ -1282,40 +1312,42 @@
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>27</v>
+      <c r="B19" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C19" s="1">
+        <f t="shared" si="4"/>
         <v>62</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4023.8</v>
       </c>
-      <c r="F19" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G19" s="2">
-        <f t="shared" si="5"/>
+      <c r="F19" s="3">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="7"/>
         <v>44821</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I19" s="1">
         <v>10</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4103.8</v>
       </c>
     </row>
@@ -1323,40 +1355,42 @@
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>28</v>
+      <c r="B20" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C20" s="1">
+        <f t="shared" si="4"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3991.3500000000004</v>
       </c>
-      <c r="F20" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G20" s="2">
-        <f t="shared" si="5"/>
+      <c r="F20" s="3">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G20" s="3">
+        <f t="shared" si="7"/>
         <v>44822</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="I20" s="1">
         <v>10</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4081.3500000000004</v>
       </c>
     </row>
@@ -1364,40 +1398,42 @@
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>29</v>
+      <c r="B21" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="C21" s="1">
+        <f t="shared" si="4"/>
         <v>61</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3958.9000000000005</v>
       </c>
-      <c r="F21" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G21" s="2">
-        <f t="shared" si="5"/>
+      <c r="F21" s="3">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G21" s="3">
+        <f t="shared" si="7"/>
         <v>44823</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I21" s="1">
         <v>10</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4058.9000000000005</v>
       </c>
     </row>
@@ -1405,40 +1441,42 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>30</v>
+      <c r="B22" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C22" s="1">
+        <f t="shared" si="4"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3926.4500000000003</v>
       </c>
-      <c r="F22" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G22" s="2">
-        <f t="shared" si="5"/>
+      <c r="F22" s="3">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" si="7"/>
         <v>44824</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="I22" s="1">
         <v>10</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4036.4500000000003</v>
       </c>
     </row>
@@ -1446,40 +1484,42 @@
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>31</v>
+      <c r="B23" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="C23" s="1">
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3894.0000000000005</v>
       </c>
-      <c r="F23" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G23" s="2">
-        <f t="shared" si="5"/>
+      <c r="F23" s="3">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" si="7"/>
         <v>44825</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="I23" s="1">
         <v>10</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4014.0000000000005</v>
       </c>
     </row>
@@ -1488,39 +1528,41 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C24" s="1">
+        <f t="shared" si="4"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3861.55</v>
       </c>
-      <c r="F24" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G24" s="2">
-        <f t="shared" si="5"/>
+      <c r="F24" s="3">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" si="7"/>
         <v>44826</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="I24" s="1">
         <v>10</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3991.55</v>
       </c>
     </row>
@@ -1529,39 +1571,41 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C25" s="1">
+        <f t="shared" si="4"/>
         <v>59</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3829.1000000000004</v>
       </c>
-      <c r="F25" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G25" s="2">
-        <f t="shared" si="5"/>
+      <c r="F25" s="3">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" si="7"/>
         <v>44827</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="I25" s="1">
         <v>10</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3969.1000000000004</v>
       </c>
     </row>
@@ -1570,39 +1614,41 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C26" s="1">
+        <f t="shared" si="4"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3796.6500000000005</v>
       </c>
-      <c r="F26" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G26" s="2">
-        <f t="shared" si="5"/>
+      <c r="F26" s="3">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" si="7"/>
         <v>44828</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="I26" s="1">
         <v>10</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3946.6500000000005</v>
       </c>
     </row>
@@ -1611,39 +1657,41 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C27" s="1">
+        <f t="shared" si="4"/>
         <v>58</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3764.2000000000003</v>
       </c>
-      <c r="F27" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G27" s="2">
-        <f t="shared" si="5"/>
+      <c r="F27" s="3">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G27" s="3">
+        <f t="shared" si="7"/>
         <v>44829</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="I27" s="1">
         <v>10</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3924.2000000000003</v>
       </c>
     </row>
@@ -1652,39 +1700,41 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C28" s="1">
+        <f t="shared" si="4"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3731.7500000000005</v>
       </c>
-      <c r="F28" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G28" s="2">
-        <f t="shared" si="5"/>
+      <c r="F28" s="3">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G28" s="3">
+        <f t="shared" si="7"/>
         <v>44830</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="I28" s="1">
         <v>10</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3901.7500000000005</v>
       </c>
     </row>
@@ -1693,39 +1743,41 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C29" s="1">
+        <f t="shared" si="4"/>
         <v>57</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3699.3</v>
       </c>
-      <c r="F29" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G29" s="2">
-        <f t="shared" si="5"/>
+      <c r="F29" s="3">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G29" s="3">
+        <f t="shared" si="7"/>
         <v>44831</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="I29" s="1">
         <v>10</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3879.3</v>
       </c>
     </row>
@@ -1734,39 +1786,41 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C30" s="1">
+        <f t="shared" si="4"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3666.8500000000004</v>
       </c>
-      <c r="F30" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G30" s="2">
-        <f t="shared" si="5"/>
+      <c r="F30" s="3">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G30" s="3">
+        <f t="shared" si="7"/>
         <v>44832</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="I30" s="1">
         <v>10</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>190</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3856.8500000000004</v>
       </c>
     </row>
@@ -1775,39 +1829,41 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C31" s="1">
+        <f t="shared" si="4"/>
         <v>56</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3634.4000000000005</v>
       </c>
-      <c r="F31" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G31" s="2">
-        <f t="shared" si="5"/>
+      <c r="F31" s="3">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G31" s="3">
+        <f t="shared" si="7"/>
         <v>44833</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="I31" s="1">
         <v>10</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3834.4000000000005</v>
       </c>
     </row>
@@ -1816,39 +1872,41 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C32" s="1">
+        <f t="shared" si="4"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3601.9500000000003</v>
       </c>
-      <c r="F32" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G32" s="2">
-        <f t="shared" si="5"/>
+      <c r="F32" s="3">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G32" s="3">
+        <f t="shared" si="7"/>
         <v>44834</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="I32" s="1">
         <v>10</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>210</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3811.9500000000003</v>
       </c>
     </row>
@@ -1857,39 +1915,41 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C33" s="1">
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3569.5000000000005</v>
       </c>
-      <c r="F33" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G33" s="2">
-        <f t="shared" si="5"/>
+      <c r="F33" s="3">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G33" s="3">
+        <f t="shared" si="7"/>
         <v>44835</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="I33" s="1">
         <v>10</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
       <c r="K33" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3789.5000000000005</v>
       </c>
     </row>
@@ -1898,39 +1958,41 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C34" s="1">
+        <f t="shared" si="4"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3537.05</v>
       </c>
-      <c r="F34" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G34" s="2">
-        <f t="shared" si="5"/>
+      <c r="F34" s="3">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G34" s="3">
+        <f t="shared" si="7"/>
         <v>44836</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="I34" s="1">
         <v>10</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>230</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3767.05</v>
       </c>
     </row>
@@ -1939,39 +2001,41 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C35" s="1">
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f>(A$1*1.1)/2</f>
+        <f>D3/2</f>
         <v>32.450000000000003</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1752.3000000000002</v>
       </c>
-      <c r="F35" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G35" s="2">
-        <f t="shared" si="5"/>
+      <c r="F35" s="3">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G35" s="3">
+        <f t="shared" si="7"/>
         <v>44837</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="I35" s="1">
         <v>10</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>240</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1992.3000000000002</v>
       </c>
     </row>
@@ -1980,39 +2044,41 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C36" s="1">
+        <f t="shared" si="4"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D38" si="6">(A$1*1.1)/2</f>
+        <f t="shared" ref="D36:D38" si="8">D4/2</f>
         <v>32.450000000000003</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1736.075</v>
       </c>
-      <c r="F36" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G36" s="2">
-        <f t="shared" si="5"/>
+      <c r="F36" s="3">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G36" s="3">
+        <f t="shared" si="7"/>
         <v>44838</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="I36" s="1">
         <v>10</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>250</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1986.075</v>
       </c>
     </row>
@@ -2021,39 +2087,41 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C37" s="1">
+        <f t="shared" si="4"/>
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>32.450000000000003</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1719.8500000000001</v>
       </c>
-      <c r="F37" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G37" s="2">
-        <f t="shared" si="5"/>
+      <c r="F37" s="3">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G37" s="3">
+        <f t="shared" si="7"/>
         <v>44839</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="I37" s="1">
         <v>10</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>260</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1979.8500000000001</v>
       </c>
     </row>
@@ -2062,45 +2130,47 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C38" s="1">
+        <f t="shared" si="4"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>32.450000000000003</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1703.6250000000002</v>
       </c>
-      <c r="F38" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G38" s="2">
-        <f t="shared" si="5"/>
+      <c r="F38" s="3">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G38" s="3">
+        <f t="shared" si="7"/>
         <v>44840</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="I38" s="1">
         <v>10</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>270</v>
       </c>
       <c r="K38" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1973.6250000000002</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="C40" s="1">
         <f>INT(SUM(K3:K38))</f>
@@ -2109,7 +2179,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2118,7 +2188,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2127,7 +2197,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_59.xlsx
+++ b/LR3/table_1_59.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A876F2-6DE2-46B1-ADD7-8FBE69AB18B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8CE611-4F81-4D90-B22E-A0EDB5456F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -565,9 +565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -665,6 +663,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
+        <f>A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -695,6 +694,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
+        <f>I3</f>
         <v>10</v>
       </c>
       <c r="J4" s="1">
@@ -708,17 +708,18 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
+        <f t="shared" ref="A5:A38" si="4">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C38" si="4">C4-0.5</f>
+        <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" ref="D5:D34" si="5">D4</f>
+        <f t="shared" ref="D5:D34" si="6">D4</f>
         <v>64.900000000000006</v>
       </c>
       <c r="E5" s="1">
@@ -726,11 +727,11 @@
         <v>4478.1000000000004</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" ref="F5:F38" si="6">F4</f>
+        <f t="shared" ref="F5:F38" si="7">F4</f>
         <v>44813</v>
       </c>
       <c r="G5" s="3">
-        <f t="shared" ref="G5:G38" si="7">G4+1</f>
+        <f t="shared" ref="G5:G38" si="8">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="1">
@@ -738,6 +739,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
+        <f t="shared" ref="I5:I38" si="9">I4</f>
         <v>10</v>
       </c>
       <c r="J5" s="1">
@@ -751,17 +753,18 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E6" s="1">
@@ -769,11 +772,11 @@
         <v>4445.6500000000005</v>
       </c>
       <c r="F6" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G6" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44808</v>
       </c>
       <c r="H6" s="1">
@@ -781,6 +784,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J6" s="1">
@@ -794,17 +798,18 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E7" s="1">
@@ -812,11 +817,11 @@
         <v>4413.2000000000007</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G7" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44809</v>
       </c>
       <c r="H7" s="1">
@@ -824,6 +829,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J7" s="1">
@@ -837,17 +843,18 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E8" s="1">
@@ -855,11 +862,11 @@
         <v>4380.75</v>
       </c>
       <c r="F8" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G8" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44810</v>
       </c>
       <c r="H8" s="1">
@@ -867,6 +874,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J8" s="1">
@@ -880,17 +888,18 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E9" s="1">
@@ -898,11 +907,11 @@
         <v>4348.3</v>
       </c>
       <c r="F9" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G9" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44811</v>
       </c>
       <c r="H9" s="1">
@@ -910,6 +919,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J9" s="1">
@@ -923,17 +933,18 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E10" s="1">
@@ -941,11 +952,11 @@
         <v>4315.8500000000004</v>
       </c>
       <c r="F10" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G10" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44812</v>
       </c>
       <c r="H10" s="1">
@@ -953,6 +964,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J10" s="1">
@@ -966,17 +978,18 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E11" s="1">
@@ -984,11 +997,11 @@
         <v>4283.4000000000005</v>
       </c>
       <c r="F11" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G11" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="H11" s="1">
@@ -996,6 +1009,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J11" s="1">
@@ -1009,17 +1023,18 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E12" s="1">
@@ -1027,11 +1042,11 @@
         <v>4250.9500000000007</v>
       </c>
       <c r="F12" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G12" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44814</v>
       </c>
       <c r="H12" s="1">
@@ -1039,6 +1054,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J12" s="1">
@@ -1052,17 +1068,18 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E13" s="1">
@@ -1070,11 +1087,11 @@
         <v>4218.5</v>
       </c>
       <c r="F13" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G13" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44815</v>
       </c>
       <c r="H13" s="1">
@@ -1082,6 +1099,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J13" s="1">
@@ -1095,17 +1113,18 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E14" s="1">
@@ -1113,11 +1132,11 @@
         <v>4186.05</v>
       </c>
       <c r="F14" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G14" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44816</v>
       </c>
       <c r="H14" s="1">
@@ -1125,6 +1144,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J14" s="1">
@@ -1138,17 +1158,18 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E15" s="1">
@@ -1156,11 +1177,11 @@
         <v>4153.6000000000004</v>
       </c>
       <c r="F15" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G15" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44817</v>
       </c>
       <c r="H15" s="1">
@@ -1168,6 +1189,7 @@
         <v>4</v>
       </c>
       <c r="I15" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J15" s="1">
@@ -1181,17 +1203,18 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E16" s="1">
@@ -1199,11 +1222,11 @@
         <v>4121.1500000000005</v>
       </c>
       <c r="F16" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G16" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44818</v>
       </c>
       <c r="H16" s="1">
@@ -1211,6 +1234,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J16" s="1">
@@ -1224,17 +1248,18 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E17" s="1">
@@ -1242,11 +1267,11 @@
         <v>4088.7000000000003</v>
       </c>
       <c r="F17" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G17" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44819</v>
       </c>
       <c r="H17" s="1">
@@ -1254,6 +1279,7 @@
         <v>6</v>
       </c>
       <c r="I17" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J17" s="1">
@@ -1267,17 +1293,18 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E18" s="1">
@@ -1285,11 +1312,11 @@
         <v>4056.2500000000005</v>
       </c>
       <c r="F18" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G18" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44820</v>
       </c>
       <c r="H18" s="1">
@@ -1297,6 +1324,7 @@
         <v>7</v>
       </c>
       <c r="I18" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J18" s="1">
@@ -1310,17 +1338,18 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E19" s="1">
@@ -1328,11 +1357,11 @@
         <v>4023.8</v>
       </c>
       <c r="F19" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G19" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44821</v>
       </c>
       <c r="H19" s="1">
@@ -1340,6 +1369,7 @@
         <v>8</v>
       </c>
       <c r="I19" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J19" s="1">
@@ -1353,17 +1383,18 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E20" s="1">
@@ -1371,11 +1402,11 @@
         <v>3991.3500000000004</v>
       </c>
       <c r="F20" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G20" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44822</v>
       </c>
       <c r="H20" s="1">
@@ -1383,6 +1414,7 @@
         <v>9</v>
       </c>
       <c r="I20" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J20" s="1">
@@ -1396,17 +1428,18 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E21" s="1">
@@ -1414,11 +1447,11 @@
         <v>3958.9000000000005</v>
       </c>
       <c r="F21" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G21" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44823</v>
       </c>
       <c r="H21" s="1">
@@ -1426,6 +1459,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J21" s="1">
@@ -1439,17 +1473,18 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E22" s="1">
@@ -1457,11 +1492,11 @@
         <v>3926.4500000000003</v>
       </c>
       <c r="F22" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G22" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44824</v>
       </c>
       <c r="H22" s="1">
@@ -1469,6 +1504,7 @@
         <v>11</v>
       </c>
       <c r="I22" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J22" s="1">
@@ -1482,17 +1518,18 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E23" s="1">
@@ -1500,11 +1537,11 @@
         <v>3894.0000000000005</v>
       </c>
       <c r="F23" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G23" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44825</v>
       </c>
       <c r="H23" s="1">
@@ -1512,6 +1549,7 @@
         <v>12</v>
       </c>
       <c r="I23" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J23" s="1">
@@ -1525,17 +1563,18 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E24" s="1">
@@ -1543,11 +1582,11 @@
         <v>3861.55</v>
       </c>
       <c r="F24" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G24" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44826</v>
       </c>
       <c r="H24" s="1">
@@ -1555,6 +1594,7 @@
         <v>13</v>
       </c>
       <c r="I24" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J24" s="1">
@@ -1568,17 +1608,18 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E25" s="1">
@@ -1586,11 +1627,11 @@
         <v>3829.1000000000004</v>
       </c>
       <c r="F25" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G25" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44827</v>
       </c>
       <c r="H25" s="1">
@@ -1598,6 +1639,7 @@
         <v>14</v>
       </c>
       <c r="I25" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J25" s="1">
@@ -1611,17 +1653,18 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E26" s="1">
@@ -1629,11 +1672,11 @@
         <v>3796.6500000000005</v>
       </c>
       <c r="F26" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G26" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44828</v>
       </c>
       <c r="H26" s="1">
@@ -1641,6 +1684,7 @@
         <v>15</v>
       </c>
       <c r="I26" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J26" s="1">
@@ -1654,17 +1698,18 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E27" s="1">
@@ -1672,11 +1717,11 @@
         <v>3764.2000000000003</v>
       </c>
       <c r="F27" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G27" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44829</v>
       </c>
       <c r="H27" s="1">
@@ -1684,6 +1729,7 @@
         <v>16</v>
       </c>
       <c r="I27" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J27" s="1">
@@ -1697,17 +1743,18 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E28" s="1">
@@ -1715,11 +1762,11 @@
         <v>3731.7500000000005</v>
       </c>
       <c r="F28" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G28" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44830</v>
       </c>
       <c r="H28" s="1">
@@ -1727,6 +1774,7 @@
         <v>17</v>
       </c>
       <c r="I28" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J28" s="1">
@@ -1740,17 +1788,18 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E29" s="1">
@@ -1758,11 +1807,11 @@
         <v>3699.3</v>
       </c>
       <c r="F29" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G29" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44831</v>
       </c>
       <c r="H29" s="1">
@@ -1770,6 +1819,7 @@
         <v>18</v>
       </c>
       <c r="I29" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J29" s="1">
@@ -1783,17 +1833,18 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E30" s="1">
@@ -1801,11 +1852,11 @@
         <v>3666.8500000000004</v>
       </c>
       <c r="F30" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G30" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44832</v>
       </c>
       <c r="H30" s="1">
@@ -1813,6 +1864,7 @@
         <v>19</v>
       </c>
       <c r="I30" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J30" s="1">
@@ -1826,17 +1878,18 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E31" s="1">
@@ -1844,11 +1897,11 @@
         <v>3634.4000000000005</v>
       </c>
       <c r="F31" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G31" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44833</v>
       </c>
       <c r="H31" s="1">
@@ -1856,6 +1909,7 @@
         <v>20</v>
       </c>
       <c r="I31" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J31" s="1">
@@ -1869,17 +1923,18 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E32" s="1">
@@ -1887,11 +1942,11 @@
         <v>3601.9500000000003</v>
       </c>
       <c r="F32" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G32" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44834</v>
       </c>
       <c r="H32" s="1">
@@ -1899,6 +1954,7 @@
         <v>21</v>
       </c>
       <c r="I32" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J32" s="1">
@@ -1912,17 +1968,18 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E33" s="1">
@@ -1930,11 +1987,11 @@
         <v>3569.5000000000005</v>
       </c>
       <c r="F33" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G33" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44835</v>
       </c>
       <c r="H33" s="1">
@@ -1942,6 +1999,7 @@
         <v>22</v>
       </c>
       <c r="I33" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J33" s="1">
@@ -1955,17 +2013,18 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E34" s="1">
@@ -1973,11 +2032,11 @@
         <v>3537.05</v>
       </c>
       <c r="F34" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G34" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44836</v>
       </c>
       <c r="H34" s="1">
@@ -1985,6 +2044,7 @@
         <v>23</v>
       </c>
       <c r="I34" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J34" s="1">
@@ -1998,13 +2058,14 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="D35" s="1">
@@ -2016,11 +2077,11 @@
         <v>1752.3000000000002</v>
       </c>
       <c r="F35" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G35" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44837</v>
       </c>
       <c r="H35" s="1">
@@ -2028,6 +2089,7 @@
         <v>24</v>
       </c>
       <c r="I35" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J35" s="1">
@@ -2041,17 +2103,18 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D38" si="8">D4/2</f>
+        <f t="shared" ref="D36:D38" si="10">D4/2</f>
         <v>32.450000000000003</v>
       </c>
       <c r="E36" s="1">
@@ -2059,11 +2122,11 @@
         <v>1736.075</v>
       </c>
       <c r="F36" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G36" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44838</v>
       </c>
       <c r="H36" s="1">
@@ -2071,6 +2134,7 @@
         <v>25</v>
       </c>
       <c r="I36" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J36" s="1">
@@ -2084,17 +2148,18 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>32.450000000000003</v>
       </c>
       <c r="E37" s="1">
@@ -2102,11 +2167,11 @@
         <v>1719.8500000000001</v>
       </c>
       <c r="F37" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G37" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44839</v>
       </c>
       <c r="H37" s="1">
@@ -2114,6 +2179,7 @@
         <v>26</v>
       </c>
       <c r="I37" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J37" s="1">
@@ -2127,17 +2193,18 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>32.450000000000003</v>
       </c>
       <c r="E38" s="1">
@@ -2145,11 +2212,11 @@
         <v>1703.6250000000002</v>
       </c>
       <c r="F38" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G38" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44840</v>
       </c>
       <c r="H38" s="1">
@@ -2157,6 +2224,7 @@
         <v>27</v>
       </c>
       <c r="I38" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J38" s="1">

--- a/LR3/table_1_59.xlsx
+++ b/LR3/table_1_59.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8CE611-4F81-4D90-B22E-A0EDB5456F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A76BE8B-1976-4919-836E-487D9B636A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -183,7 +183,7 @@
     <t>Максимальный срок просрочки, дней</t>
   </si>
   <si>
-    <t>Максимальная сумма просрочки, руб.</t>
+    <t>Максимальная сумма, руб.</t>
   </si>
 </sst>
 </file>
@@ -565,7 +565,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>

--- a/LR3/table_1_59.xlsx
+++ b/LR3/table_1_59.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A76BE8B-1976-4919-836E-487D9B636A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783064D9-31F7-41CD-99FC-9C2BE58110F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -565,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -648,14 +648,14 @@
         <v>44805</v>
       </c>
       <c r="H3" s="1">
-        <f>IF(G3&lt;F3,0,G3-F3)</f>
+        <f>IF(G3&gt;F3,G3-F3,0)</f>
         <v>0</v>
       </c>
       <c r="I3" s="1">
         <v>10</v>
       </c>
       <c r="J3" s="1">
-        <f>I3*H3</f>
+        <f>H3*I3</f>
         <v>0</v>
       </c>
       <c r="K3" s="1">
@@ -692,7 +692,7 @@
         <v>44806</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H38" si="1">IF(G4&lt;F4,0,G4-F4)</f>
+        <f t="shared" ref="H4:H38" si="1">IF(G4&gt;F4,G4-F4,0)</f>
         <v>0</v>
       </c>
       <c r="I4" s="1">
@@ -700,7 +700,7 @@
         <v>10</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J38" si="2">I4*H4</f>
+        <f t="shared" ref="J4:J38" si="2">H4*I4</f>
         <v>0</v>
       </c>
       <c r="K4" s="1">
@@ -2116,7 +2116,7 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D38" si="10">D4/2</f>
+        <f>D3/2</f>
         <v>32.450000000000003</v>
       </c>
       <c r="E36" s="1">
@@ -2161,7 +2161,7 @@
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="10"/>
+        <f>D3/2</f>
         <v>32.450000000000003</v>
       </c>
       <c r="E37" s="1">
@@ -2206,7 +2206,7 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="10"/>
+        <f>D3/2</f>
         <v>32.450000000000003</v>
       </c>
       <c r="E38" s="1">
@@ -2243,7 +2243,7 @@
         <v>47</v>
       </c>
       <c r="C40" s="1">
-        <f>INT(SUM(K3:K38))</f>
+        <f>_xlfn.FLOOR.MATH(SUM(K3:K38))</f>
         <v>139972</v>
       </c>
     </row>

--- a/LR3/table_1_59.xlsx
+++ b/LR3/table_1_59.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783064D9-31F7-41CD-99FC-9C2BE58110F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF56B19-16BF-495C-9A90-414C23E6D103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -566,7 +566,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/LR3/table_1_59.xlsx
+++ b/LR3/table_1_59.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF56B19-16BF-495C-9A90-414C23E6D103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F8E0B4-E8BF-4B4F-9062-3AB6F06014B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,6 +38,114 @@
     <t>№ квартиры</t>
   </si>
   <si>
+    <t>Алишеров</t>
+  </si>
+  <si>
+    <t>Аллаярова</t>
+  </si>
+  <si>
+    <t>Антипов</t>
+  </si>
+  <si>
+    <t>Арсланов</t>
+  </si>
+  <si>
+    <t>Гусаков</t>
+  </si>
+  <si>
+    <t>Дедюхин</t>
+  </si>
+  <si>
+    <t>Иванова</t>
+  </si>
+  <si>
+    <t>Камалов</t>
+  </si>
+  <si>
+    <t>Любенко</t>
+  </si>
+  <si>
+    <t>Максутов</t>
+  </si>
+  <si>
+    <t>Никифорович</t>
+  </si>
+  <si>
+    <t>Овчинников</t>
+  </si>
+  <si>
+    <t>Романова</t>
+  </si>
+  <si>
+    <t>Симоненко</t>
+  </si>
+  <si>
+    <t>Стариков</t>
+  </si>
+  <si>
+    <t>Сулейманов</t>
+  </si>
+  <si>
+    <t>Тураев</t>
+  </si>
+  <si>
+    <t>Хакимджанов</t>
+  </si>
+  <si>
+    <t>Хасанов</t>
+  </si>
+  <si>
+    <t>Чарыев</t>
+  </si>
+  <si>
+    <t>Юсупова</t>
+  </si>
+  <si>
+    <t>Куропаткин 1</t>
+  </si>
+  <si>
+    <t>Куропаткин 2</t>
+  </si>
+  <si>
+    <t>Куропаткин 3</t>
+  </si>
+  <si>
+    <t>Куропаткин 4</t>
+  </si>
+  <si>
+    <t>Куропаткин 5</t>
+  </si>
+  <si>
+    <t>Куропаткин 6</t>
+  </si>
+  <si>
+    <t>Куропаткин 7</t>
+  </si>
+  <si>
+    <t>Куропаткин 8</t>
+  </si>
+  <si>
+    <t>Куропаткин 9</t>
+  </si>
+  <si>
+    <t>Куропаткин 10</t>
+  </si>
+  <si>
+    <t>Куропаткин 11</t>
+  </si>
+  <si>
+    <t>Куропаткин 12</t>
+  </si>
+  <si>
+    <t>Куропаткин 13</t>
+  </si>
+  <si>
+    <t>Куропаткин 14</t>
+  </si>
+  <si>
+    <t>Куропаткин 15</t>
+  </si>
+  <si>
     <t>Площадь, кв.м.</t>
   </si>
   <si>
@@ -45,176 +155,52 @@
     <t>Дата оплаты</t>
   </si>
   <si>
-    <t>Алишеров</t>
-  </si>
-  <si>
-    <t>Аллаярова</t>
-  </si>
-  <si>
-    <t>Антипов</t>
-  </si>
-  <si>
-    <t>Арсланов</t>
-  </si>
-  <si>
-    <t>Гусаков</t>
-  </si>
-  <si>
-    <t>Дедюхин</t>
-  </si>
-  <si>
-    <t>Иванова</t>
-  </si>
-  <si>
-    <t>Камалов</t>
-  </si>
-  <si>
-    <t>Любенко</t>
-  </si>
-  <si>
-    <t>Максутов</t>
-  </si>
-  <si>
-    <t>Никифорович</t>
-  </si>
-  <si>
-    <t>Овчинников</t>
-  </si>
-  <si>
-    <t>Романова</t>
-  </si>
-  <si>
-    <t>Симоненко</t>
-  </si>
-  <si>
-    <t>Стариков</t>
-  </si>
-  <si>
-    <t>Сулейманов</t>
-  </si>
-  <si>
-    <t>Тураев</t>
-  </si>
-  <si>
-    <t>Хакимджанов</t>
-  </si>
-  <si>
-    <t>Хасанов</t>
-  </si>
-  <si>
-    <t>Чарыев</t>
-  </si>
-  <si>
-    <t>Юсупова</t>
-  </si>
-  <si>
-    <t>Куропаткин 1</t>
-  </si>
-  <si>
-    <t>Куропаткин 2</t>
-  </si>
-  <si>
-    <t>Куропаткин 3</t>
-  </si>
-  <si>
-    <t>Куропаткин 4</t>
-  </si>
-  <si>
-    <t>Куропаткин 5</t>
-  </si>
-  <si>
-    <t>Куропаткин 6</t>
-  </si>
-  <si>
-    <t>Куропаткин 7</t>
-  </si>
-  <si>
-    <t>Куропаткин 8</t>
-  </si>
-  <si>
-    <t>Куропаткин 9</t>
-  </si>
-  <si>
-    <t>Куропаткин 10</t>
-  </si>
-  <si>
-    <t>Куропаткин 11</t>
-  </si>
-  <si>
-    <t>Куропаткин 12</t>
-  </si>
-  <si>
-    <t>Куропаткин 13</t>
-  </si>
-  <si>
-    <t>Куропаткин 14</t>
-  </si>
-  <si>
-    <t>Куропаткин 15</t>
+    <t>Просрочка, дней</t>
+  </si>
+  <si>
+    <t>Штраф, руб.</t>
+  </si>
+  <si>
+    <t>Общая сумма, руб.</t>
+  </si>
+  <si>
+    <t>Средняя площадь, кв.м.</t>
+  </si>
+  <si>
+    <t>Пени за 1 день, руб.</t>
+  </si>
+  <si>
+    <t>Сумма, руб.</t>
+  </si>
+  <si>
+    <t>Итого, руб.</t>
+  </si>
+  <si>
+    <t>Максимальный срок просрочки, дней</t>
+  </si>
+  <si>
+    <t>Максимальная сумма, руб.</t>
   </si>
   <si>
     <t>Фамилия квартиросъёмщика</t>
   </si>
   <si>
-    <t>Сумма, руб.</t>
-  </si>
-  <si>
     <t>Тариф, руб./кв.м.</t>
-  </si>
-  <si>
-    <t>Просрочка, дней</t>
-  </si>
-  <si>
-    <t>Пени за 1 день, руб.</t>
-  </si>
-  <si>
-    <t>Штраф, руб.</t>
-  </si>
-  <si>
-    <t>Итого, руб.</t>
-  </si>
-  <si>
-    <t>Общая сумма, руб.</t>
-  </si>
-  <si>
-    <t>Средняя площадь, кв.м.</t>
-  </si>
-  <si>
-    <t>Максимальный срок просрочки, дней</t>
-  </si>
-  <si>
-    <t>Максимальная сумма, руб.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
+  </numFmts>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -238,23 +224,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -277,44 +269,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -364,9 +356,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -422,142 +414,166 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -565,22 +581,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13" style="1" customWidth="1"/>
-    <col min="2" max="2" width="38.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="1"/>
-    <col min="6" max="6" width="14.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="11.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.59765625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.3984375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -593,31 +610,31 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>44</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>46</v>
@@ -627,8 +644,8 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -641,14 +658,14 @@
         <f>C3*D3</f>
         <v>4543</v>
       </c>
-      <c r="F3" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G3" s="3">
+      <c r="F3" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G3" s="2">
         <v>44805</v>
       </c>
       <c r="H3" s="1">
-        <f>IF(G3&gt;F3,G3-F3,0)</f>
+        <f>IF(G3&lt;=F3,0,G3-F3)</f>
         <v>0</v>
       </c>
       <c r="I3" s="1">
@@ -668,31 +685,31 @@
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="C4" s="1">
         <f>C3-0.5</f>
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
-        <f>D3</f>
+        <f t="shared" ref="D4:D34" si="0">$A$1*1.1</f>
         <v>64.900000000000006</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E38" si="0">C4*D4</f>
+        <f t="shared" ref="E4:E37" si="1">C4*D4</f>
         <v>4510.55</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <f>F3</f>
         <v>44813</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <f>G3+1</f>
         <v>44806</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H38" si="1">IF(G4&gt;F4,G4-F4,0)</f>
+        <f t="shared" ref="H4:H38" si="2">IF(G4&lt;=F4,0,G4-F4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="1">
@@ -700,44 +717,44 @@
         <v>10</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J38" si="2">H4*I4</f>
+        <f t="shared" ref="J4:J38" si="3">H4*I4</f>
         <v>0</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" ref="K4:K38" si="3">E4+J4</f>
+        <f t="shared" ref="K4:K38" si="4">E4+J4</f>
         <v>4510.55</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <f t="shared" ref="A5:A38" si="4">A4+1</f>
+        <f t="shared" ref="A5:A38" si="5">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
+        <f t="shared" ref="C5:C38" si="6">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" ref="D5:D34" si="6">D4</f>
+        <f t="shared" si="0"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4478.1000000000004</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <f t="shared" ref="F5:F38" si="7">F4</f>
         <v>44813</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <f t="shared" ref="G5:G38" si="8">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I5" s="1">
@@ -745,44 +762,44 @@
         <v>10</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4478.1000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4445.6500000000005</v>
       </c>
-      <c r="F6" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G6" s="3">
+      <c r="F6" s="2">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G6" s="2">
         <f t="shared" si="8"/>
         <v>44808</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I6" s="1">
@@ -790,44 +807,44 @@
         <v>10</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4445.6500000000005</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>8</v>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>68</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4413.2000000000007</v>
       </c>
-      <c r="F7" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G7" s="3">
+      <c r="F7" s="2">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G7" s="2">
         <f t="shared" si="8"/>
         <v>44809</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I7" s="1">
@@ -835,44 +852,44 @@
         <v>10</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4413.2000000000007</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>9</v>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4380.75</v>
       </c>
-      <c r="F8" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="F8" s="2">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G8" s="2">
         <f t="shared" si="8"/>
         <v>44810</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I8" s="1">
@@ -880,44 +897,44 @@
         <v>10</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4380.75</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>10</v>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>67</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4348.3</v>
       </c>
-      <c r="F9" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="F9" s="2">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G9" s="2">
         <f t="shared" si="8"/>
         <v>44811</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I9" s="1">
@@ -925,44 +942,44 @@
         <v>10</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4348.3</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>11</v>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4315.8500000000004</v>
       </c>
-      <c r="F10" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="F10" s="2">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G10" s="2">
         <f t="shared" si="8"/>
         <v>44812</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I10" s="1">
@@ -970,44 +987,44 @@
         <v>10</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4315.8500000000004</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>12</v>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>66</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4283.4000000000005</v>
       </c>
-      <c r="F11" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G11" s="3">
+      <c r="F11" s="2">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G11" s="2">
         <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I11" s="1">
@@ -1015,44 +1032,44 @@
         <v>10</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4283.4000000000005</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>13</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4250.9500000000007</v>
       </c>
-      <c r="F12" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="F12" s="2">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G12" s="2">
         <f t="shared" si="8"/>
         <v>44814</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I12" s="1">
@@ -1060,44 +1077,44 @@
         <v>10</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4260.9500000000007</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
+      <c r="B13" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>65</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4218.5</v>
       </c>
-      <c r="F13" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G13" s="3">
+      <c r="F13" s="2">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G13" s="2">
         <f t="shared" si="8"/>
         <v>44815</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I13" s="1">
@@ -1105,44 +1122,44 @@
         <v>10</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4238.5</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>15</v>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4186.05</v>
       </c>
-      <c r="F14" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="F14" s="2">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G14" s="2">
         <f t="shared" si="8"/>
         <v>44816</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I14" s="1">
@@ -1150,44 +1167,44 @@
         <v>10</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4216.05</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>16</v>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4153.6000000000004</v>
       </c>
-      <c r="F15" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="F15" s="2">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G15" s="2">
         <f t="shared" si="8"/>
         <v>44817</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="I15" s="1">
@@ -1195,44 +1212,44 @@
         <v>10</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4193.6000000000004</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>17</v>
+      <c r="B16" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4121.1500000000005</v>
       </c>
-      <c r="F16" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G16" s="3">
+      <c r="F16" s="2">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G16" s="2">
         <f t="shared" si="8"/>
         <v>44818</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I16" s="1">
@@ -1240,44 +1257,44 @@
         <v>10</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4171.1500000000005</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>18</v>
+      <c r="B17" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>63</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4088.7000000000003</v>
       </c>
-      <c r="F17" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="F17" s="2">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G17" s="2">
         <f t="shared" si="8"/>
         <v>44819</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I17" s="1">
@@ -1285,44 +1302,44 @@
         <v>10</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4148.7000000000007</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>19</v>
+      <c r="B18" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4056.2500000000005</v>
       </c>
-      <c r="F18" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="F18" s="2">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G18" s="2">
         <f t="shared" si="8"/>
         <v>44820</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I18" s="1">
@@ -1330,44 +1347,44 @@
         <v>10</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4126.25</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>20</v>
+      <c r="B19" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>62</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4023.8</v>
       </c>
-      <c r="F19" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G19" s="3">
+      <c r="F19" s="2">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G19" s="2">
         <f t="shared" si="8"/>
         <v>44821</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="I19" s="1">
@@ -1375,44 +1392,44 @@
         <v>10</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4103.8</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>21</v>
+      <c r="B20" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3991.3500000000004</v>
       </c>
-      <c r="F20" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="F20" s="2">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G20" s="2">
         <f t="shared" si="8"/>
         <v>44822</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="I20" s="1">
@@ -1420,44 +1437,44 @@
         <v>10</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4081.3500000000004</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>22</v>
+      <c r="B21" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>61</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3958.9000000000005</v>
       </c>
-      <c r="F21" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="F21" s="2">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G21" s="2">
         <f t="shared" si="8"/>
         <v>44823</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="I21" s="1">
@@ -1465,44 +1482,44 @@
         <v>10</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4058.9000000000005</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>23</v>
+      <c r="B22" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3926.4500000000003</v>
       </c>
-      <c r="F22" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="F22" s="2">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G22" s="2">
         <f t="shared" si="8"/>
         <v>44824</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="I22" s="1">
@@ -1510,44 +1527,44 @@
         <v>10</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4036.4500000000003</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>24</v>
+      <c r="B23" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3894.0000000000005</v>
       </c>
-      <c r="F23" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="F23" s="2">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G23" s="2">
         <f t="shared" si="8"/>
         <v>44825</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="I23" s="1">
@@ -1555,44 +1572,44 @@
         <v>10</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4014.0000000000005</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3861.55</v>
       </c>
-      <c r="F24" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="F24" s="2">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G24" s="2">
         <f t="shared" si="8"/>
         <v>44826</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="I24" s="1">
@@ -1600,44 +1617,44 @@
         <v>10</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>130</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3991.55</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>59</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3829.1000000000004</v>
       </c>
-      <c r="F25" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G25" s="3">
+      <c r="F25" s="2">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G25" s="2">
         <f t="shared" si="8"/>
         <v>44827</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="I25" s="1">
@@ -1645,44 +1662,44 @@
         <v>10</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>140</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3969.1000000000004</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3796.6500000000005</v>
       </c>
-      <c r="F26" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="F26" s="2">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G26" s="2">
         <f t="shared" si="8"/>
         <v>44828</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="I26" s="1">
@@ -1690,44 +1707,44 @@
         <v>10</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3946.6500000000005</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>58</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3764.2000000000003</v>
       </c>
-      <c r="F27" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="F27" s="2">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G27" s="2">
         <f t="shared" si="8"/>
         <v>44829</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="I27" s="1">
@@ -1735,44 +1752,44 @@
         <v>10</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>160</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3924.2000000000003</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3731.7500000000005</v>
       </c>
-      <c r="F28" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G28" s="3">
+      <c r="F28" s="2">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G28" s="2">
         <f t="shared" si="8"/>
         <v>44830</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="I28" s="1">
@@ -1780,44 +1797,44 @@
         <v>10</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>170</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3901.7500000000005</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>57</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3699.3</v>
       </c>
-      <c r="F29" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G29" s="3">
+      <c r="F29" s="2">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G29" s="2">
         <f t="shared" si="8"/>
         <v>44831</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="I29" s="1">
@@ -1825,44 +1842,44 @@
         <v>10</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3879.3</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3666.8500000000004</v>
       </c>
-      <c r="F30" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G30" s="3">
+      <c r="F30" s="2">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G30" s="2">
         <f t="shared" si="8"/>
         <v>44832</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="I30" s="1">
@@ -1870,44 +1887,44 @@
         <v>10</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>190</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3856.8500000000004</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>56</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3634.4000000000005</v>
       </c>
-      <c r="F31" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G31" s="3">
+      <c r="F31" s="2">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G31" s="2">
         <f t="shared" si="8"/>
         <v>44833</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="I31" s="1">
@@ -1915,44 +1932,44 @@
         <v>10</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3834.4000000000005</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3601.9500000000003</v>
       </c>
-      <c r="F32" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="F32" s="2">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G32" s="2">
         <f t="shared" si="8"/>
         <v>44834</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="I32" s="1">
@@ -1960,44 +1977,44 @@
         <v>10</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3811.9500000000003</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>55</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3569.5000000000005</v>
       </c>
-      <c r="F33" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="F33" s="2">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G33" s="2">
         <f t="shared" si="8"/>
         <v>44835</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="I33" s="1">
@@ -2005,44 +2022,44 @@
         <v>10</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>220</v>
       </c>
       <c r="K33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3789.5000000000005</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3537.05</v>
       </c>
-      <c r="F34" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G34" s="3">
+      <c r="F34" s="2">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G34" s="2">
         <f t="shared" si="8"/>
         <v>44836</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="I34" s="1">
@@ -2050,44 +2067,44 @@
         <v>10</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>230</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3767.05</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f>D3/2</f>
+        <f>($A$1*1.1)/2</f>
         <v>32.450000000000003</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1752.3000000000002</v>
       </c>
-      <c r="F35" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="F35" s="2">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G35" s="2">
         <f t="shared" si="8"/>
         <v>44837</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="I35" s="1">
@@ -2095,44 +2112,44 @@
         <v>10</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1992.3000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f>D3/2</f>
+        <f t="shared" ref="D36:D38" si="10">($A$1*1.1)/2</f>
         <v>32.450000000000003</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1736.075</v>
       </c>
-      <c r="F36" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G36" s="3">
+      <c r="F36" s="2">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G36" s="2">
         <f t="shared" si="8"/>
         <v>44838</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="I36" s="1">
@@ -2140,44 +2157,44 @@
         <v>10</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1986.075</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f>D3/2</f>
+        <f t="shared" si="10"/>
         <v>32.450000000000003</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1719.8500000000001</v>
       </c>
-      <c r="F37" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G37" s="3">
+      <c r="F37" s="2">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G37" s="2">
         <f t="shared" si="8"/>
         <v>44839</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="I37" s="1">
@@ -2185,44 +2202,44 @@
         <v>10</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>260</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1979.8500000000001</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f>D3/2</f>
+        <f t="shared" si="10"/>
         <v>32.450000000000003</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" si="0"/>
+        <f>C38*D38</f>
         <v>1703.6250000000002</v>
       </c>
-      <c r="F38" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G38" s="3">
+      <c r="F38" s="2">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G38" s="2">
         <f t="shared" si="8"/>
         <v>44840</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="I38" s="1">
@@ -2230,35 +2247,35 @@
         <v>10</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>270</v>
       </c>
       <c r="K38" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1973.6250000000002</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="1">
-        <f>_xlfn.FLOOR.MATH(SUM(K3:K38))</f>
+        <v>42</v>
+      </c>
+      <c r="C40" s="5">
+        <f>FLOOR(SUM(K3:K38),1)</f>
         <v>139972</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" s="1">
+        <v>43</v>
+      </c>
+      <c r="C41" s="3">
         <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2267,7 +2284,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>
@@ -2275,8 +2292,31 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>